--- a/September'21/23.09.2021/Daily Sales Info Sep'21.xlsx
+++ b/September'21/23.09.2021/Daily Sales Info Sep'21.xlsx
@@ -35851,7 +35851,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37832,7 +37832,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39631,7 +39631,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="A26:XFD26"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41337,8 +41337,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59191,8 +59191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
